--- a/日报与周报-叶家俊2018.03.23.xlsx
+++ b/日报与周报-叶家俊2018.03.23.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>时间</t>
   </si>
@@ -60,14 +60,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2018/1/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/1/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>知识产权培训，Chart调试；</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -89,6 +81,18 @@
   </si>
   <si>
     <t>网络故障，连接不上bitbucket与eldersens云，服务器太远导致；代码调试。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>团建活动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植audio；代码调试；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加notification push token；调试chartjs；</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +147,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -181,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +224,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,7 +563,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D9"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -571,20 +585,20 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
+      <c r="C1" s="5">
+        <v>43178</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43179</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43180</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43181</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43182</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>1</v>
@@ -601,15 +615,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -646,16 +662,20 @@
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -729,7 +749,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
